--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1095262.190914833</v>
+        <v>1093374.609398431</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>327.7725728859739</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>76.49321080792292</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -820,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>168.6314833828171</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>24.08852816170446</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.70305333391263</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>54.47555601903397</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,13 +1139,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>97.64711324991048</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>330.6682555872959</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586891</v>
+        <v>169.0167291702128</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>14.97068936074868</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>33.35146980185868</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>24.30197918502491</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>194.7745636082514</v>
+        <v>166.4704758913032</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,25 +2239,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>143.651110864909</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>143.3158222056514</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>12.16692371255289</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404421</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>18.96996685211573</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>204.1291651532059</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965533</v>
+        <v>93.41221638965527</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801214</v>
+        <v>91.23070601801209</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437422</v>
+        <v>42.20569823125493</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389791</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571496</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523577</v>
+        <v>54.7610957752357</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3007,16 +3007,16 @@
         <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>170.5021317179371</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3253,7 +3253,7 @@
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224548</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3436,7 +3436,7 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789546</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1714.909333753394</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="C2" t="n">
-        <v>1345.946816812982</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2478.514423990285</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2478.514423990285</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2105.048665729205</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1714.909333753394</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4422,10 +4422,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.8624625746712</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X4" t="n">
-        <v>667.8624625746712</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="Y4" t="n">
-        <v>667.8624625746712</v>
+        <v>211.6471865296039</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1748.280186455194</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C5" t="n">
-        <v>1379.317669514782</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>1021.051970908032</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>635.2637183097872</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>224.2778135201797</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036446</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4580,7 +4580,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
         <v>2544.691559791253</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2672.817244390239</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2496.639756704409</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2278.005089676471</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.880026519315</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="X5" t="n">
-        <v>2134.880026519315</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="Y5" t="n">
-        <v>2134.880026519315</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4647,22 +4647,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.535689181137</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036446</v>
@@ -4732,7 +4732,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4741,34 +4741,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>717.3178192226844</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>717.3178192226844</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>717.3178192226844</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T7" t="n">
-        <v>717.3178192226844</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U7" t="n">
-        <v>717.3178192226844</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="V7" t="n">
-        <v>717.3178192226844</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="W7" t="n">
-        <v>717.3178192226844</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="X7" t="n">
-        <v>489.3282683246671</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>268.535689181137</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1745.334734821698</v>
+        <v>1040.216121848823</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.372217881286</v>
+        <v>671.253604908411</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>312.9879063016605</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>312.9879063016605</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>306.0424055524571</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.942913862886</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="Y8" t="n">
-        <v>2131.93457488582</v>
+        <v>1426.815961912944</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036446</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>513.8405610245974</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>513.8405610245974</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>224.6669506791653</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064347</v>
+        <v>224.6669506791653</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064347</v>
+        <v>224.6669506791653</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064347</v>
+        <v>224.6669506791653</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064347</v>
+        <v>224.6669506791653</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,7 +5024,7 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5036,16 +5036,16 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5054,7 +5054,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899127</v>
@@ -5063,10 +5063,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5115,22 +5115,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>462.7283310300498</v>
       </c>
       <c r="L12" t="n">
-        <v>638.3691419079764</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O12" t="n">
         <v>2016.139981183168</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>260.2520934878796</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609666</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550798</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>441.9005583181194</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X13" t="n">
-        <v>441.9005583181194</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="Y13" t="n">
-        <v>441.9005583181194</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5264,10 +5264,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5282,7 +5282,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5358,16 +5358,16 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864554</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528586</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
         <v>2016.139981183168</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>289.9398668627128</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>289.9398668627128</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>289.9398668627128</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>289.9398668627128</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>289.9398668627128</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>121.7645451825332</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>920.3704617344999</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>692.3809108364826</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>471.5883316929525</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>709.4934589365143</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1016.813592216476</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N18" t="n">
-        <v>1346.676219880509</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>414.0663679705858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V19" t="n">
-        <v>1020.446367141521</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W19" t="n">
-        <v>823.7043836988429</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X19" t="n">
-        <v>595.7148328008255</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y19" t="n">
-        <v>595.7148328008255</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5735,34 +5735,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5771,7 +5771,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5829,22 +5829,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864553</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>1538.857683528586</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>988.9950526279304</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>820.0588697000235</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>669.9422302876877</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>522.0291367052945</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>522.0291367052945</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>353.8538150251151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5911,19 +5911,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.78763177146</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1209.78763177146</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>1209.78763177146</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.78763177146</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y22" t="n">
-        <v>988.9950526279304</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5966,34 +5966,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6011,22 +6011,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.9563154684962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6148,13 +6148,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1286.706438541584</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1286.706438541584</v>
+        <v>786.0822064765185</v>
       </c>
       <c r="V25" t="n">
-        <v>1032.021950335697</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>742.604780298736</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>742.604780298736</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.604780298736</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6221,55 +6221,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.28419175141</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515099</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>624.8682044203583</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>932.1883377003199</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>579.3570368996736</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C28" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688076</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799369</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765193</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.787631771461</v>
+        <v>531.3977182706325</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.787631771461</v>
+        <v>531.3977182706325</v>
       </c>
       <c r="X28" t="n">
-        <v>981.7980808734435</v>
+        <v>303.4081673726151</v>
       </c>
       <c r="Y28" t="n">
-        <v>761.0055017299134</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>400.2445180358627</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1014.141587792751</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,58 +6595,58 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>638.4603630227168</v>
+        <v>439.5324299542185</v>
       </c>
       <c r="C31" t="n">
-        <v>525.2850453761806</v>
+        <v>326.3571123076824</v>
       </c>
       <c r="D31" t="n">
-        <v>430.9292712452157</v>
+        <v>232.0013381767175</v>
       </c>
       <c r="E31" t="n">
-        <v>338.7770429441932</v>
+        <v>139.8491098756949</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276536</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
         <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
         <v>1568.62813016707</v>
@@ -6655,16 +6655,16 @@
         <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1163.035981189335</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>929.3796764337451</v>
+        <v>902.6804289818933</v>
       </c>
       <c r="X31" t="n">
-        <v>929.3796764337451</v>
+        <v>730.4517433652468</v>
       </c>
       <c r="Y31" t="n">
-        <v>764.3479625715858</v>
+        <v>565.4200295030874</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,7 +6710,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6722,28 +6722,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P33" t="n">
         <v>2317.834075963124</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506725</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,19 +6853,19 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,13 +6935,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7017,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1336.046207783208</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q36" t="n">
         <v>2612.943493278838</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O37" t="n">
         <v>1688.186490350129</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,7 +7172,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,22 +7251,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7312,31 +7312,31 @@
         <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,10 +7351,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7363,7 +7363,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859417</v>
@@ -7375,7 +7375,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,7 +7400,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,7 +7409,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514082</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>339.7502131046251</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525396</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254953</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
         <v>1688.186490350129</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7637,40 +7637,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,10 +7804,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7831,7 +7831,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360586</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747117</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.269243651622</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395178</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,19 +8769,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>176.717654749845</v>
       </c>
       <c r="L12" t="n">
-        <v>104.8749102765748</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9006,19 +9006,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>306.1147370139961</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>199.7396287231153</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9173,7 +9173,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>223.6742649934478</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>369.089388049373</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>199.7396287231156</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>189.0022427662467</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711664</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>91.23759968302113</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>113.6026921294539</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,13 +10203,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,13 +10437,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>188.8856946302403</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,16 +10674,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>39.88923345256728</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>274.3657496970643</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>52.49733361305235</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>32.92248665775577</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>152.2761317378792</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>185.2331835502361</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>124.6118491825112</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,16 +23701,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338569</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>91.74843472833959</v>
+        <v>120.0525224452877</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>5.26271750262714</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>75.26883114644335</v>
       </c>
     </row>
     <row r="23">
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24415,19 +24415,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>209.3806373458364</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>82.39383318338588</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>148.2768542465121</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24649,16 +24649,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>14.45548819888882</v>
       </c>
     </row>
     <row r="29">
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>48.01209316311923</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897904</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.2159888357149</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,13 +24895,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>26.43225497733382</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>979408.0102536818</v>
+        <v>979408.0102536819</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>979408.0102536818</v>
+        <v>979408.0102536819</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>979408.010253682</v>
+        <v>979408.0102536819</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>979408.0102536818</v>
+        <v>979408.0102536819</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>979408.0102536819</v>
+        <v>979408.010253682</v>
       </c>
     </row>
     <row r="11">
@@ -26317,13 +26317,13 @@
         <v>431046.9291787488</v>
       </c>
       <c r="D2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="E2" t="n">
+        <v>410580.5127245942</v>
+      </c>
+      <c r="F2" t="n">
         <v>410580.5127245943</v>
-      </c>
-      <c r="F2" t="n">
-        <v>410580.5127245944</v>
       </c>
       <c r="G2" t="n">
         <v>410580.5127245943</v>
@@ -26335,25 +26335,25 @@
         <v>410580.5127245943</v>
       </c>
       <c r="J2" t="n">
-        <v>410580.5127245942</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="K2" t="n">
-        <v>427163.2442125333</v>
+        <v>427163.2442125332</v>
       </c>
       <c r="L2" t="n">
         <v>431046.9291787486</v>
       </c>
       <c r="M2" t="n">
+        <v>431046.9291787487</v>
+      </c>
+      <c r="N2" t="n">
         <v>431046.9291787486</v>
       </c>
-      <c r="N2" t="n">
-        <v>431046.9291787487</v>
-      </c>
       <c r="O2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787486</v>
       </c>
       <c r="P2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787486</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284563</v>
+        <v>44162.60530284564</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086691</v>
+        <v>10342.90680086687</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26427,37 +26427,37 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="G4" t="n">
         <v>22174.60758687072</v>
       </c>
-      <c r="G4" t="n">
-        <v>22174.6075868707</v>
-      </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687065</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106724</v>
+        <v>40339.23010106725</v>
       </c>
       <c r="L4" t="n">
+        <v>44593.3948281912</v>
+      </c>
+      <c r="M4" t="n">
+        <v>44593.3948281912</v>
+      </c>
+      <c r="N4" t="n">
         <v>44593.39482819119</v>
       </c>
-      <c r="M4" t="n">
-        <v>44593.39482819121</v>
-      </c>
-      <c r="N4" t="n">
-        <v>44593.39482819118</v>
-      </c>
       <c r="O4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340948</v>
@@ -26482,34 +26482,34 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26525,37 +26525,37 @@
         <v>182554.983328815</v>
       </c>
       <c r="D6" t="n">
-        <v>182554.9833288147</v>
+        <v>182554.9833288149</v>
       </c>
       <c r="E6" t="n">
-        <v>-228741.457287889</v>
+        <v>-228838.9164138614</v>
       </c>
       <c r="F6" t="n">
-        <v>296418.5791890071</v>
+        <v>296321.1200630348</v>
       </c>
       <c r="G6" t="n">
-        <v>296418.579189007</v>
+        <v>296321.1200630348</v>
       </c>
       <c r="H6" t="n">
-        <v>296418.5791890069</v>
+        <v>296321.1200630348</v>
       </c>
       <c r="I6" t="n">
-        <v>296418.5791890067</v>
+        <v>296321.1200630348</v>
       </c>
       <c r="J6" t="n">
-        <v>119995.3599964139</v>
+        <v>119897.9008704418</v>
       </c>
       <c r="K6" t="n">
-        <v>246033.2002783976</v>
+        <v>246014.7065404631</v>
       </c>
       <c r="L6" t="n">
-        <v>278395.5217296652</v>
+        <v>278395.5217296651</v>
       </c>
       <c r="M6" t="n">
-        <v>153937.4132966949</v>
+        <v>153937.413296695</v>
       </c>
       <c r="N6" t="n">
-        <v>288738.4285305321</v>
+        <v>288738.428530532</v>
       </c>
       <c r="O6" t="n">
         <v>288738.4285305321</v>
@@ -26707,10 +26707,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964067</v>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170869</v>
@@ -26750,19 +26750,19 @@
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26771,13 +26771,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26811,7 +26811,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26932,22 +26932,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>55.20325662855706</v>
+      </c>
+      <c r="L2" t="n">
+        <v>12.92863350108358</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>55.20325662855704</v>
-      </c>
-      <c r="L2" t="n">
-        <v>12.92863350108363</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>55.20325662855705</v>
       </c>
     </row>
     <row r="3">
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>54.96126877750669</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>278.18983081276</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,16 +27540,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>11.18263959690384</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27588,10 +27588,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>166.0457989735918</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>245.1526866379779</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>30.38987441310724</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>18.41969662100165</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>171.2340993700032</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27859,13 +27859,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>316.1370567708845</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>55.56968306875768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060684</v>
+        <v>10.81525101172446</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28059,13 +28059,13 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="32">
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31282,7 +31282,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31291,34 +31291,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,40 +31355,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31397,7 +31397,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031299</v>
@@ -35258,7 +35258,7 @@
         <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338904</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>327.2930933377842</v>
       </c>
       <c r="L12" t="n">
-        <v>354.1326152325991</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
@@ -35650,7 +35650,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221117</v>
@@ -35665,7 +35665,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R14" t="n">
         <v>59.8253897034981</v>
@@ -35726,19 +35726,19 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>616.5391140644624</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>482.1033309642235</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
@@ -35884,16 +35884,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
         <v>713.1546070951472</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>425.9753597058698</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>506.0379672345559</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36139,10 +36139,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>618.3470930053974</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>482.1033309642237</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>499.426619816713</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523309</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303347</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>340.4953046390455</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>264.1781307173932</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412255</v>
+        <v>67.71102679412262</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084856</v>
@@ -36999,16 +36999,16 @@
         <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043177</v>
+        <v>94.42895660043185</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37157,13 +37157,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>395.979109561765</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37315,7 +37315,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37385,7 +37385,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37394,16 +37394,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>373.0838068505802</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>10.73738595686865</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>481.459164628589</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520614</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>203.0727722009916</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>315.2861888988639</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
